--- a/api/tmp/covid_19_demographics.xlsx
+++ b/api/tmp/covid_19_demographics.xlsx
@@ -412,23 +412,35 @@
           <t>0-19</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>69991</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5903</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>132938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9895</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -437,23 +449,35 @@
           <t>20-29</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>119292</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11757</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.29</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>175017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16838</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -462,23 +486,35 @@
           <t>30-39</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>114958</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10321</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.73</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>153163</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13615</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15.4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -487,23 +523,35 @@
           <t>40-49</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>109059</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10544</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.68</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>141552</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13747</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -512,23 +560,35 @@
           <t>50-59</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>115825</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9856</v>
-      </c>
-      <c r="D6" t="n">
-        <v>139</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.06</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>148042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12906</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -537,23 +597,35 @@
           <t>60-69</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>101244</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7415</v>
-      </c>
-      <c r="D7" t="n">
-        <v>441</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16.06</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>128346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -562,23 +634,35 @@
           <t>70-79</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>63037</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4670</v>
-      </c>
-      <c r="D8" t="n">
-        <v>676</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.62</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>79536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6044</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -587,23 +671,35 @@
           <t>80+</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>39143</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4750</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1410</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="G9" t="n">
-        <v>51.35</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>48130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5638</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>51.11</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -612,23 +708,35 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3299</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.15</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -693,23 +801,35 @@
           <t>F</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>418228</v>
-      </c>
-      <c r="C2" t="n">
-        <v>34188</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1332</v>
-      </c>
-      <c r="E2" t="n">
-        <v>56.84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="G2" t="n">
-        <v>48.51</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>567711</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>46368</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -718,23 +838,35 @@
           <t>M</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>304941</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30029</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1359</v>
-      </c>
-      <c r="E3" t="n">
-        <v>41.44</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49.49</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>427462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40819</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -743,23 +875,35 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>12679</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -824,23 +968,35 @@
           <t>Asian</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>6323</v>
-      </c>
-      <c r="C2" t="n">
-        <v>844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.55</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -849,23 +1005,35 @@
           <t>Black or African American</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>61699</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7450</v>
-      </c>
-      <c r="D3" t="n">
-        <v>385</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.02</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>81811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -874,23 +1042,35 @@
           <t>Other Race</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>94499</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10793</v>
-      </c>
-      <c r="D4" t="n">
-        <v>366</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.33</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13291</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -899,23 +1079,35 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>133800</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15141</v>
-      </c>
-      <c r="D5" t="n">
-        <v>198</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.21</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>182265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20112</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -924,23 +1116,35 @@
           <t>White</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>439527</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31025</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1782</v>
-      </c>
-      <c r="E6" t="n">
-        <v>59.73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="G6" t="n">
-        <v>64.89</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>612211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>44446</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1005,23 +1209,35 @@
           <t>Hispanic or Latino</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>25566</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7030</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>35681</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8517</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1030,23 +1246,35 @@
           <t>Not Hispanic or Latino</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>293852</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22517</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1429</v>
-      </c>
-      <c r="E3" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34.51</v>
-      </c>
-      <c r="G3" t="n">
-        <v>52.04</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420046</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>32096</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>36.3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>51.44</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1055,23 +1283,35 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>416430</v>
-      </c>
-      <c r="C4" t="n">
-        <v>35706</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1262</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45.96</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>555254</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>47808</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
       </c>
     </row>
   </sheetData>
